--- a/国赛训练/2019培训1/2019-51MCM-Problem A-Appendix.xlsx
+++ b/国赛训练/2019培训1/2019-51MCM-Problem A-Appendix.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0272B-C47D-40A0-A063-F856C1ADBCF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="某型标枪测量尺寸表" sheetId="1" r:id="rId1"/>
@@ -165,8 +166,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +210,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -261,6 +269,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -280,7 +291,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -355,6 +366,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,16 +610,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -586,7 +631,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -602,7 +647,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -628,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -654,7 +699,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -680,7 +725,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -706,7 +751,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>30</v>
       </c>
@@ -732,7 +777,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40</v>
       </c>
@@ -758,7 +803,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>50</v>
       </c>
@@ -780,7 +825,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -802,7 +847,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>150</v>
       </c>
@@ -824,7 +869,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -846,7 +891,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>250</v>
       </c>
@@ -868,7 +913,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>300</v>
       </c>
@@ -886,7 +931,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>350</v>
       </c>
@@ -904,7 +949,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>400</v>
       </c>
@@ -922,7 +967,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>450</v>
       </c>
@@ -940,7 +985,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>500</v>
       </c>
@@ -958,7 +1003,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>550</v>
       </c>
@@ -976,7 +1021,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>600</v>
       </c>
@@ -994,7 +1039,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>650</v>
       </c>
@@ -1012,7 +1057,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>700</v>
       </c>
@@ -1030,7 +1075,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>750</v>
       </c>
@@ -1048,7 +1093,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>800</v>
       </c>
@@ -1066,7 +1111,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>850</v>
       </c>
@@ -1084,7 +1129,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>900</v>
       </c>
@@ -1102,7 +1147,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>950</v>
       </c>
@@ -1120,7 +1165,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1000</v>
       </c>
@@ -1138,7 +1183,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1050</v>
       </c>
@@ -1156,7 +1201,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1100</v>
       </c>
@@ -1174,7 +1219,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1150</v>
       </c>
@@ -1188,7 +1233,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1198,7 +1243,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1221,22 +1266,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1270,7 +1315,7 @@
         <v>89.58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1287,7 +1332,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1304,7 +1349,7 @@
         <v>86.08</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1317,11 +1362,11 @@
       <c r="D5" s="2">
         <v>-4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="6">
         <v>83.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1338,7 +1383,7 @@
         <v>82.04</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1355,7 +1400,7 @@
         <v>81.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1372,7 +1417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1389,7 +1434,7 @@
         <v>80.760000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1406,7 +1451,7 @@
         <v>79.58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1423,7 +1468,7 @@
         <v>79.14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>78.760000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1457,7 +1502,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1474,7 +1519,7 @@
         <v>67.56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1491,7 +1536,7 @@
         <v>65.22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1508,7 +1553,7 @@
         <v>65.16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1525,7 +1570,7 @@
         <v>65.040000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1542,7 +1587,7 @@
         <v>63.74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1559,7 +1604,7 @@
         <v>62.32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1576,7 +1621,7 @@
         <v>60.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1593,7 +1638,7 @@
         <v>59.82</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1610,7 +1655,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1627,7 +1672,7 @@
         <v>58.84</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1644,7 +1689,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1664,5 +1709,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/国赛训练/2019培训1/2019-51MCM-Problem A-Appendix.xlsx
+++ b/国赛训练/2019培训1/2019-51MCM-Problem A-Appendix.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF22591-1A0E-457C-BE4A-A816DC644E79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="某型标枪测量尺寸表" sheetId="1" r:id="rId1"/>
     <sheet name="24名运动员实测数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
   <si>
     <t>枪身</t>
   </si>
@@ -161,11 +169,184 @@
     <t>投掷距离(米)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>标准误差</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>众数</t>
+  </si>
+  <si>
+    <t>标准差</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>峰度</t>
+  </si>
+  <si>
+    <t>偏度</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>最小值</t>
+  </si>
+  <si>
+    <t>最大值</t>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>观测数</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>回归统计</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>观测值</t>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>回归分析</t>
+  </si>
+  <si>
+    <t>残差</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>下限 95.0%</t>
+  </si>
+  <si>
+    <t>上限 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>X Variable 2</t>
+  </si>
+  <si>
+    <t>X Variable 3</t>
+  </si>
+  <si>
+    <t>整体数据的相关系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手速度(m/s)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手角(°)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始攻角(°)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷距离(m)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出手角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始攻角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷距离</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前12组数据的相关系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后12组数据的相关系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,11 +422,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -260,6 +461,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -280,7 +495,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -355,6 +570,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,6 +622,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,16 +814,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="K16:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -586,7 +835,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -602,7 +851,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -628,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -654,7 +903,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10</v>
       </c>
@@ -680,7 +929,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>20</v>
       </c>
@@ -706,7 +955,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>30</v>
       </c>
@@ -732,7 +981,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>40</v>
       </c>
@@ -758,7 +1007,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>50</v>
       </c>
@@ -780,7 +1029,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>100</v>
       </c>
@@ -802,7 +1051,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>150</v>
       </c>
@@ -824,7 +1073,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -846,7 +1095,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>250</v>
       </c>
@@ -868,7 +1117,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>300</v>
       </c>
@@ -886,7 +1135,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>350</v>
       </c>
@@ -904,7 +1153,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>400</v>
       </c>
@@ -922,7 +1171,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>450</v>
       </c>
@@ -940,7 +1189,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>500</v>
       </c>
@@ -958,7 +1207,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>550</v>
       </c>
@@ -976,7 +1225,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>600</v>
       </c>
@@ -994,7 +1243,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>650</v>
       </c>
@@ -1012,7 +1261,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>700</v>
       </c>
@@ -1030,7 +1279,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>750</v>
       </c>
@@ -1048,7 +1297,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>800</v>
       </c>
@@ -1066,7 +1315,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>850</v>
       </c>
@@ -1084,7 +1333,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>900</v>
       </c>
@@ -1102,7 +1351,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>950</v>
       </c>
@@ -1120,7 +1369,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1000</v>
       </c>
@@ -1138,7 +1387,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1050</v>
       </c>
@@ -1156,7 +1405,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1100</v>
       </c>
@@ -1174,7 +1423,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1150</v>
       </c>
@@ -1188,7 +1437,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1198,7 +1447,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1221,22 +1470,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11.06640625" customWidth="1"/>
+    <col min="4" max="4" width="14.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" customWidth="1"/>
+    <col min="10" max="10" width="13.46484375" customWidth="1"/>
+    <col min="11" max="11" width="13.796875" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12.796875" customWidth="1"/>
+    <col min="15" max="15" width="17.59765625" customWidth="1"/>
+    <col min="20" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="12.59765625" customWidth="1"/>
+    <col min="23" max="23" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1270,7 +1532,7 @@
         <v>89.58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1286,8 +1548,27 @@
       <c r="E3" s="2">
         <v>86.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1303,8 +1584,16 @@
       <c r="E4" s="2">
         <v>86.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1320,8 +1609,36 @@
       <c r="E5" s="2">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8">
+        <v>27.037499999999994</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="8">
+        <v>33.583333333333336</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8">
+        <v>71.913333333333313</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1337,8 +1654,38 @@
       <c r="E6" s="2">
         <v>82.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.49988449752874448</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.5244619971679837</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.1851537334796176</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="8">
+        <v>2.2643685067363992</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.98664898353772745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1354,8 +1701,38 @@
       <c r="E7" s="2">
         <v>81.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8">
+        <v>27.5</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8">
+        <v>34</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="8">
+        <v>72.86</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.97347621671603068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1371,8 +1748,38 @@
       <c r="E8" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="8">
+        <v>24.9</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="8">
+        <v>35</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.96949764922343529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1388,8 +1795,38 @@
       <c r="E9" s="2">
         <v>80.760000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="8">
+        <v>2.4489238985459649</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2.5693285650851121</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5.8060438275590229</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="8">
+        <v>11.093094862264142</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="8">
+        <v>1.9374003882625306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1405,8 +1842,38 @@
       <c r="E10" s="2">
         <v>79.58</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5.9972282608695666</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8">
+        <v>6.6014492753623202</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="8">
+        <v>33.710144927536234</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="8">
+        <v>123.05675362319111</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1422,8 +1889,32 @@
       <c r="E11" s="2">
         <v>79.14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="8">
+        <v>-1.5232701045821717</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="8">
+        <v>9.3972455553860357E-2</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.8978118100281214</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="8">
+        <v>-1.640633022385199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1439,8 +1930,35 @@
       <c r="E12" s="2">
         <v>78.760000000000005</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.5845633599383852E-2</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="8">
+        <v>-0.90176650396759417</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.56701481628535433</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="8">
+        <v>-1.0598477980624936E-2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1456,8 +1974,48 @@
       <c r="E13" s="2">
         <v>78.16</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8">
+        <v>8.1000000000000014</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="8">
+        <v>9</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="8">
+        <v>28</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="8">
+        <v>34.019999999999996</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1473,8 +2031,50 @@
       <c r="E14" s="2">
         <v>67.56</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8">
+        <v>28</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="8">
+        <v>-10</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="8">
+        <v>55.56</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>2755.2349280445374</v>
+      </c>
+      <c r="R14" s="8">
+        <v>918.41164268151249</v>
+      </c>
+      <c r="S14" s="8">
+        <v>244.68008109144475</v>
+      </c>
+      <c r="T14" s="8">
+        <v>6.2990090989375777E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1490,8 +2090,46 @@
       <c r="E15" s="2">
         <v>65.22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8">
+        <v>31.5</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="8">
+        <v>37</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="8">
+        <v>18</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="8">
+        <v>89.58</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="8">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>75.070405288796081</v>
+      </c>
+      <c r="R15" s="8">
+        <v>3.7535202644398042</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1507,8 +2145,44 @@
       <c r="E16" s="2">
         <v>65.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="8">
+        <v>648.89999999999986</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8">
+        <v>806</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="8">
+        <v>32</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1725.9199999999996</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>2830.3053333333332</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1524,8 +2198,32 @@
       <c r="E17" s="2">
         <v>65.040000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="6">
+        <v>24</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="6">
+        <v>24</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="6">
+        <v>24</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1541,8 +2239,33 @@
       <c r="E18" s="2">
         <v>63.74</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1558,8 +2281,35 @@
       <c r="E19" s="2">
         <v>62.32</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="8">
+        <v>-60.541503575914142</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>8.868308000780706</v>
+      </c>
+      <c r="R19" s="8">
+        <v>-6.8267254103696526</v>
+      </c>
+      <c r="S19" s="8">
+        <v>1.2322402180158789E-6</v>
+      </c>
+      <c r="T19" s="8">
+        <v>-79.040469904638115</v>
+      </c>
+      <c r="U19" s="8">
+        <v>-42.042537247190168</v>
+      </c>
+      <c r="V19" s="8">
+        <v>-79.040469904638115</v>
+      </c>
+      <c r="W19" s="8">
+        <v>-42.042537247190168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1575,8 +2325,35 @@
       <c r="E20" s="2">
         <v>60.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="8">
+        <v>4.3088125975399914</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.20244051693747706</v>
+      </c>
+      <c r="R20" s="8">
+        <v>21.284339038072851</v>
+      </c>
+      <c r="S20" s="8">
+        <v>3.2808668020161713E-15</v>
+      </c>
+      <c r="T20" s="8">
+        <v>3.8865290789628082</v>
+      </c>
+      <c r="U20" s="8">
+        <v>4.7310961161171745</v>
+      </c>
+      <c r="V20" s="8">
+        <v>3.8865290789628082</v>
+      </c>
+      <c r="W20" s="8">
+        <v>4.7310961161171745</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1592,8 +2369,35 @@
       <c r="E21" s="2">
         <v>59.82</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.47685598751792724</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0.1791617314473106</v>
+      </c>
+      <c r="R21" s="8">
+        <v>2.6615951055271259</v>
+      </c>
+      <c r="S21" s="8">
+        <v>1.4983247661164789E-2</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.10313116456997412</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.8505808104658803</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0.10313116456997412</v>
+      </c>
+      <c r="W21" s="8">
+        <v>0.8505808104658803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1609,8 +2413,35 @@
       <c r="E22" s="2">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="O22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="6">
+        <v>-4.4322958162817831E-2</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>9.507645366668431E-2</v>
+      </c>
+      <c r="R22" s="6">
+        <v>-0.46618228229466468</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0.64612245220529751</v>
+      </c>
+      <c r="T22" s="6">
+        <v>-0.2426489652071879</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0.15400304888155222</v>
+      </c>
+      <c r="V22" s="6">
+        <v>-0.2426489652071879</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0.15400304888155222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1627,7 +2458,7 @@
         <v>58.84</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1644,7 +2475,7 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1661,8 +2492,761 @@
         <v>55.56</v>
       </c>
     </row>
+    <row r="28" spans="1:23" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>0.13664499259287619</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="8">
+        <v>-0.15343537670077725</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="8">
+        <v>-0.61093564553455448</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>-0.56356225724110931</v>
+      </c>
+      <c r="C32">
+        <v>-0.4566135679341663</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.35945227827802589</v>
+      </c>
+      <c r="H32" s="8">
+        <v>-0.57125904996978172</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="8">
+        <v>-0.33569909032886014</v>
+      </c>
+      <c r="M32" s="8">
+        <v>-0.26685207152814194</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1</v>
+      </c>
+      <c r="O32" s="8"/>
+    </row>
+    <row r="33" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>0.97938396640004455</v>
+      </c>
+      <c r="C33">
+        <v>0.25101893114858354</v>
+      </c>
+      <c r="D33">
+        <v>-0.60970063167132527</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0.90651990407716199</v>
+      </c>
+      <c r="H33" s="6">
+        <v>-0.2643781463660998</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.34417145538251437</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.74246866607959494</v>
+      </c>
+      <c r="M33" s="6">
+        <v>-1.6414844331638114E-2</v>
+      </c>
+      <c r="N33" s="6">
+        <v>-0.58977576178059454</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0.91743662105772628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.84168995365781807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="8">
+        <v>0.78232368627949977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1.6531813487666784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E49" s="7"/>
+      <c r="F49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="8">
+        <v>3</v>
+      </c>
+      <c r="G50" s="8">
+        <v>116.24509809138645</v>
+      </c>
+      <c r="H50" s="8">
+        <v>38.748366030462151</v>
+      </c>
+      <c r="I50" s="8">
+        <v>14.177916025847711</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1.4443826488973678E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="8">
+        <v>8</v>
+      </c>
+      <c r="G51" s="8">
+        <v>21.864068575280111</v>
+      </c>
+      <c r="H51" s="8">
+        <v>2.7330085719100139</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E52" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="6">
+        <v>11</v>
+      </c>
+      <c r="G52" s="6">
+        <v>138.10916666666657</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="8">
+        <v>-13.580887824937992</v>
+      </c>
+      <c r="G55" s="8">
+        <v>20.695142744518023</v>
+      </c>
+      <c r="H55" s="8">
+        <v>-0.65623552311739719</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0.53009096191804983</v>
+      </c>
+      <c r="J55" s="8">
+        <v>-61.303972572437075</v>
+      </c>
+      <c r="K55" s="8">
+        <v>34.142196922561084</v>
+      </c>
+      <c r="L55" s="8">
+        <v>-61.303972572437075</v>
+      </c>
+      <c r="M55" s="8">
+        <v>34.142196922561084</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="8">
+        <v>3.6653236798276385</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.60916935622239043</v>
+      </c>
+      <c r="H56" s="8">
+        <v>6.0169206516841482</v>
+      </c>
+      <c r="I56" s="8">
+        <v>3.1735805613897211E-4</v>
+      </c>
+      <c r="J56" s="8">
+        <v>2.2605766253391457</v>
+      </c>
+      <c r="K56" s="8">
+        <v>5.0700707343161309</v>
+      </c>
+      <c r="L56" s="8">
+        <v>2.2605766253391457</v>
+      </c>
+      <c r="M56" s="8">
+        <v>5.0700707343161309</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="8">
+        <v>-0.34059780554406138</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0.34288038891010186</v>
+      </c>
+      <c r="H57" s="8">
+        <v>-0.99334291653921647</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.34963400413552198</v>
+      </c>
+      <c r="J57" s="8">
+        <v>-1.1312814002511693</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0.45008578916304653</v>
+      </c>
+      <c r="L57" s="8">
+        <v>-1.1312814002511693</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0.45008578916304653</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="6">
+        <v>-6.2488347679083699E-2</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.14191701038797364</v>
+      </c>
+      <c r="H58" s="6">
+        <v>-0.44031612213541316</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.67136264397328005</v>
+      </c>
+      <c r="J58" s="6">
+        <v>-0.38974956048956361</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.26477286513139625</v>
+      </c>
+      <c r="L58" s="6">
+        <v>-0.38974956048956361</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0.26477286513139625</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E61" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E62" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0.92544786730523398</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E63" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.85645375509980604</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E64" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.80262391326223326</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E65" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="8">
+        <v>1.6857869726744759</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="8">
+        <v>3</v>
+      </c>
+      <c r="G70" s="8">
+        <v>135.64614492875489</v>
+      </c>
+      <c r="H70" s="8">
+        <v>45.215381642918295</v>
+      </c>
+      <c r="I70" s="8">
+        <v>15.910389588066897</v>
+      </c>
+      <c r="J70" s="8">
+        <v>9.8297388935039676E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E71" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="8">
+        <v>8</v>
+      </c>
+      <c r="G71" s="8">
+        <v>22.735021737911794</v>
+      </c>
+      <c r="H71" s="8">
+        <v>2.8418777172389742</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+    </row>
+    <row r="72" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="6">
+        <v>11</v>
+      </c>
+      <c r="G72" s="6">
+        <v>158.38116666666667</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M74" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E75" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" s="8">
+        <v>-89.998978596586184</v>
+      </c>
+      <c r="G75" s="8">
+        <v>31.900498747222965</v>
+      </c>
+      <c r="H75" s="8">
+        <v>-2.8212404862297293</v>
+      </c>
+      <c r="I75" s="8">
+        <v>2.2450950857205186E-2</v>
+      </c>
+      <c r="J75" s="8">
+        <v>-163.5616606227577</v>
+      </c>
+      <c r="K75" s="8">
+        <v>-16.436296570414669</v>
+      </c>
+      <c r="L75" s="8">
+        <v>-163.5616606227577</v>
+      </c>
+      <c r="M75" s="8">
+        <v>-16.436296570414669</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E76" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="8">
+        <v>5.0040140015155909</v>
+      </c>
+      <c r="G76" s="8">
+        <v>0.9714530370666058</v>
+      </c>
+      <c r="H76" s="8">
+        <v>5.1510611533272712</v>
+      </c>
+      <c r="I76" s="8">
+        <v>8.7318497805607704E-4</v>
+      </c>
+      <c r="J76" s="8">
+        <v>2.7638392808833507</v>
+      </c>
+      <c r="K76" s="8">
+        <v>7.2441887221478307</v>
+      </c>
+      <c r="L76" s="8">
+        <v>2.7638392808833507</v>
+      </c>
+      <c r="M76" s="8">
+        <v>7.2441887221478307</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="8">
+        <v>0.84235203424916516</v>
+      </c>
+      <c r="G77" s="8">
+        <v>0.27010936025359428</v>
+      </c>
+      <c r="H77" s="8">
+        <v>3.1185592141579854</v>
+      </c>
+      <c r="I77" s="8">
+        <v>1.4259711994687899E-2</v>
+      </c>
+      <c r="J77" s="8">
+        <v>0.21947873254702466</v>
+      </c>
+      <c r="K77" s="8">
+        <v>1.4652253359513057</v>
+      </c>
+      <c r="L77" s="8">
+        <v>0.21947873254702466</v>
+      </c>
+      <c r="M77" s="8">
+        <v>1.4652253359513057</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E78" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="6">
+        <v>-1.637059273728405E-2</v>
+      </c>
+      <c r="G78" s="6">
+        <v>0.14112449950632375</v>
+      </c>
+      <c r="H78" s="6">
+        <v>-0.11600106852141918</v>
+      </c>
+      <c r="I78" s="6">
+        <v>0.91051072927415089</v>
+      </c>
+      <c r="J78" s="6">
+        <v>-0.34180427217748505</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0.30906308670291699</v>
+      </c>
+      <c r="L78" s="6">
+        <v>-0.34180427217748505</v>
+      </c>
+      <c r="M78" s="6">
+        <v>0.30906308670291699</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="A28:E28"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>